--- a/Code/Results/Cases/Case_2_215/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_215/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.25383665321204</v>
+        <v>8.159054695133975</v>
       </c>
       <c r="C2">
-        <v>6.801036419335293</v>
+        <v>4.500813361879064</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>17.19320677826574</v>
+        <v>20.84741186657752</v>
       </c>
       <c r="F2">
-        <v>30.6173091096926</v>
+        <v>40.43597167435549</v>
       </c>
       <c r="G2">
-        <v>2.101408436866179</v>
+        <v>3.64750983676834</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>13.62131747691309</v>
+        <v>21.82737116811017</v>
       </c>
       <c r="J2">
-        <v>5.10433202622604</v>
+        <v>8.305246227963558</v>
       </c>
       <c r="K2">
-        <v>11.09095530452698</v>
+        <v>8.131938830123946</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.79381486827157</v>
+        <v>17.63623549835984</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.61828918074877</v>
+        <v>23.1165425373109</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.51862357711134</v>
+        <v>7.856956119717805</v>
       </c>
       <c r="C3">
-        <v>6.451462098007153</v>
+        <v>4.327538061331373</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>16.38938519516278</v>
+        <v>20.73292576435665</v>
       </c>
       <c r="F3">
-        <v>29.72883788105382</v>
+        <v>40.40830126207543</v>
       </c>
       <c r="G3">
-        <v>2.105864044367783</v>
+        <v>3.649135742441822</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>13.88778744208255</v>
+        <v>21.93765498464185</v>
       </c>
       <c r="J3">
-        <v>5.150582169138235</v>
+        <v>8.320482328259299</v>
       </c>
       <c r="K3">
-        <v>10.51463707760481</v>
+        <v>7.935173013125079</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.03179773422171</v>
+        <v>17.50171694112018</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>14.79545674274198</v>
+        <v>23.22213170804183</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.04245203629002</v>
+        <v>7.666183235077403</v>
       </c>
       <c r="C4">
-        <v>6.226930874930818</v>
+        <v>4.216721847421771</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>15.88520104974532</v>
+        <v>20.66658662842658</v>
       </c>
       <c r="F4">
-        <v>29.19650524361741</v>
+        <v>40.40161096148864</v>
       </c>
       <c r="G4">
-        <v>2.108681119199216</v>
+        <v>3.650186352986709</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>14.06064200331473</v>
+        <v>22.00946642769632</v>
       </c>
       <c r="J4">
-        <v>5.17976361284497</v>
+        <v>8.330318766210246</v>
       </c>
       <c r="K4">
-        <v>10.143879341603</v>
+        <v>7.812678738067859</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.54797955943938</v>
+        <v>17.42147761401865</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>14.91692546661154</v>
+        <v>23.29175205555968</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.84221834256817</v>
+        <v>7.58722835054327</v>
       </c>
       <c r="C5">
-        <v>6.132994902981815</v>
+        <v>4.170492182668474</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15.67734164389376</v>
+        <v>20.64056879463397</v>
       </c>
       <c r="F5">
-        <v>28.98313386028045</v>
+        <v>40.40147726440889</v>
       </c>
       <c r="G5">
-        <v>2.109850039495522</v>
+        <v>3.650627676789443</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>14.13333314322267</v>
+        <v>22.03976089017069</v>
       </c>
       <c r="J5">
-        <v>5.191857156748084</v>
+        <v>8.334448605126152</v>
       </c>
       <c r="K5">
-        <v>9.98862172412152</v>
+        <v>7.762407816875236</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.347033403844</v>
+        <v>17.38939982199019</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.96946944428107</v>
+        <v>23.32132563297427</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.80859709880668</v>
+        <v>7.574048266503117</v>
       </c>
       <c r="C6">
-        <v>6.117251359451094</v>
+        <v>4.162752402013241</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15.6426905847209</v>
+        <v>20.63631050066853</v>
       </c>
       <c r="F6">
-        <v>28.9479256537827</v>
+        <v>40.40161169700116</v>
       </c>
       <c r="G6">
-        <v>2.110045416509496</v>
+        <v>3.650701756202125</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>14.14553748416332</v>
+        <v>22.04485353265091</v>
       </c>
       <c r="J6">
-        <v>5.193877609558048</v>
+        <v>8.335141705104384</v>
       </c>
       <c r="K6">
-        <v>9.96259204991412</v>
+        <v>7.754041090867612</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.31344503421417</v>
+        <v>17.38411159782061</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.97837412824869</v>
+        <v>23.32630890691263</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.03977662288297</v>
+        <v>7.665123173916963</v>
       </c>
       <c r="C7">
-        <v>6.225673817479817</v>
+        <v>4.216102656439022</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>15.88240711169523</v>
+        <v>20.66623160261548</v>
       </c>
       <c r="F7">
-        <v>29.19361291610905</v>
+        <v>40.4015986586629</v>
       </c>
       <c r="G7">
-        <v>2.108696798247628</v>
+        <v>3.650192251367534</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>14.06161331447882</v>
+        <v>22.00987081531745</v>
       </c>
       <c r="J7">
-        <v>5.179925887033305</v>
+        <v>8.33037397060369</v>
       </c>
       <c r="K7">
-        <v>10.14180225419157</v>
+        <v>7.812002104939538</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.54528453768487</v>
+        <v>17.42104245351649</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>14.91762195181343</v>
+        <v>23.29214602711178</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.0054869415612</v>
+        <v>8.056052987520882</v>
       </c>
       <c r="C8">
-        <v>6.682582247894697</v>
+        <v>4.442009564668836</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>16.91840791148631</v>
+        <v>20.8071291917035</v>
       </c>
       <c r="F8">
-        <v>30.30837038377455</v>
+        <v>40.42429550401318</v>
       </c>
       <c r="G8">
-        <v>2.102928157306646</v>
+        <v>3.648059619197098</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>13.71123225238336</v>
+        <v>21.86454708246615</v>
       </c>
       <c r="J8">
-        <v>5.120119391462595</v>
+        <v>8.310399933416742</v>
       </c>
       <c r="K8">
-        <v>10.89578862673974</v>
+        <v>8.064482717676006</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.53449919667534</v>
+        <v>17.58938172586954</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.67665268897906</v>
+        <v>23.15195511066727</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.70213352653204</v>
+        <v>8.776286318001116</v>
       </c>
       <c r="C9">
-        <v>7.498488430020163</v>
+        <v>4.848345383186716</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>18.85566922265576</v>
+        <v>21.11381854304573</v>
       </c>
       <c r="F9">
-        <v>32.58876197042292</v>
+        <v>40.55032105585345</v>
       </c>
       <c r="G9">
-        <v>2.092237534020227</v>
+        <v>3.644290629963493</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>13.10118155250707</v>
+        <v>21.61204781831677</v>
       </c>
       <c r="J9">
-        <v>5.008827018236651</v>
+        <v>8.275034334681006</v>
       </c>
       <c r="K9">
-        <v>12.23775805733206</v>
+        <v>8.543428424884562</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.34016251033038</v>
+        <v>17.93690840026691</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>14.31181518693025</v>
+        <v>22.91509174618701</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.82831760295326</v>
+        <v>9.271985256580345</v>
       </c>
       <c r="C10">
-        <v>8.047645487427111</v>
+        <v>5.122763680016297</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>20.21089348147186</v>
+        <v>21.35624362162552</v>
       </c>
       <c r="F10">
-        <v>34.30883319952899</v>
+        <v>40.69221210392202</v>
       </c>
       <c r="G10">
-        <v>2.084727377943365</v>
+        <v>3.641770771251804</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>12.70592692070356</v>
+        <v>21.4463015712924</v>
       </c>
       <c r="J10">
-        <v>4.930370928724539</v>
+        <v>8.251346857958247</v>
       </c>
       <c r="K10">
-        <v>13.13809668135527</v>
+        <v>8.881913790759652</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.73879807551979</v>
+        <v>18.20108825282544</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.11986540509913</v>
+        <v>22.76434571668573</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.31466174087842</v>
+        <v>9.489339330961348</v>
       </c>
       <c r="C11">
-        <v>8.286406506285148</v>
+        <v>5.24207625535829</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>20.81111962629011</v>
+        <v>21.46991400862835</v>
       </c>
       <c r="F11">
-        <v>35.09870946657809</v>
+        <v>40.76734100666726</v>
       </c>
       <c r="G11">
-        <v>2.081377377561482</v>
+        <v>3.640677980617394</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>12.53920458684489</v>
+        <v>21.3751845310387</v>
       </c>
       <c r="J11">
-        <v>4.895318046978114</v>
+        <v>8.241064377419118</v>
       </c>
       <c r="K11">
-        <v>13.52885156480771</v>
+        <v>9.032322666494141</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.37199931472846</v>
+        <v>18.32280500204238</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.05154992121028</v>
+        <v>22.70084012917906</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.49511397488222</v>
+        <v>9.57041329658793</v>
       </c>
       <c r="C12">
-        <v>8.375225814171031</v>
+        <v>5.28644311155795</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>21.0359845703044</v>
+        <v>21.51341633450878</v>
       </c>
       <c r="F12">
-        <v>35.3987190960754</v>
+        <v>40.79729801034138</v>
       </c>
       <c r="G12">
-        <v>2.080117650856432</v>
+        <v>3.640271821262995</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>12.47810883678638</v>
+        <v>21.34886981255156</v>
       </c>
       <c r="J12">
-        <v>4.88212907001376</v>
+        <v>8.237241204805628</v>
       </c>
       <c r="K12">
-        <v>13.67410677183014</v>
+        <v>9.08871516483655</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.60703065065919</v>
+        <v>18.36908427005715</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>14.02863459563205</v>
+        <v>22.67752289590976</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.45641527290813</v>
+        <v>9.553008326792488</v>
       </c>
       <c r="C13">
-        <v>8.356167910606342</v>
+        <v>5.276924417881569</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>20.98766494603503</v>
+        <v>21.50402744941619</v>
       </c>
       <c r="F13">
-        <v>35.33406889787083</v>
+        <v>40.7907794450612</v>
       </c>
       <c r="G13">
-        <v>2.080388573832515</v>
+        <v>3.640358955003264</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>12.49117351380305</v>
+        <v>21.35450977039905</v>
       </c>
       <c r="J13">
-        <v>4.884965894827749</v>
+        <v>8.238061459507984</v>
       </c>
       <c r="K13">
-        <v>13.64294428944878</v>
+        <v>9.076595882746114</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.55662250399434</v>
+        <v>18.35910938769278</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>14.03343477453147</v>
+        <v>22.68251213825848</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.32958200179496</v>
+        <v>9.49603438085175</v>
       </c>
       <c r="C14">
-        <v>8.293745683873087</v>
+        <v>5.24574276662112</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>20.82966845556998</v>
+        <v>21.47348396854278</v>
       </c>
       <c r="F14">
-        <v>35.1233742250972</v>
+        <v>40.76977546782279</v>
       </c>
       <c r="G14">
-        <v>2.081273566003083</v>
+        <v>3.640644412403509</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>12.53413637517683</v>
+        <v>21.37300726203165</v>
       </c>
       <c r="J14">
-        <v>4.894231323362211</v>
+        <v>8.240748430030015</v>
       </c>
       <c r="K14">
-        <v>13.54085624068941</v>
+        <v>9.036973692151582</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.39143024333292</v>
+        <v>18.32660885528109</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.04960414418455</v>
+        <v>22.69890714557957</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.25140968647112</v>
+        <v>9.460973867530214</v>
       </c>
       <c r="C15">
-        <v>8.255302596035149</v>
+        <v>5.22653652068454</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>20.73257277433532</v>
+        <v>21.45483393191378</v>
       </c>
       <c r="F15">
-        <v>34.99443056998174</v>
+        <v>40.75710576240879</v>
       </c>
       <c r="G15">
-        <v>2.08181677955851</v>
+        <v>3.64082025933524</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>12.56072284934466</v>
+        <v>21.38441770259357</v>
       </c>
       <c r="J15">
-        <v>4.899917497383552</v>
+        <v>8.242403459053671</v>
       </c>
       <c r="K15">
-        <v>13.47797061915717</v>
+        <v>9.012629061538187</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.28962893390853</v>
+        <v>18.30672479313101</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.05989986241597</v>
+        <v>22.70904481166516</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.79601280897796</v>
+        <v>9.257611285671107</v>
       </c>
       <c r="C16">
-        <v>8.031818923863561</v>
+        <v>5.114853413444089</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>20.17133169080903</v>
+        <v>21.34888069334812</v>
       </c>
       <c r="F16">
-        <v>34.25734724442358</v>
+        <v>40.68751400845315</v>
       </c>
       <c r="G16">
-        <v>2.084947585542042</v>
+        <v>3.641843261165447</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>12.7170988255472</v>
+        <v>21.45103539985264</v>
       </c>
       <c r="J16">
-        <v>4.932673964207678</v>
+        <v>8.25202873638859</v>
       </c>
       <c r="K16">
-        <v>13.11218031721269</v>
+        <v>8.872007950502566</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.69674865612287</v>
+        <v>18.19316189087369</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.12473105017858</v>
+        <v>22.76859813499946</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.5100025736171</v>
+        <v>9.130722427074572</v>
       </c>
       <c r="C17">
-        <v>7.891882580898324</v>
+        <v>5.044909830245811</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>19.82278906566302</v>
+        <v>21.28472923787408</v>
       </c>
       <c r="F17">
-        <v>33.80694138636519</v>
+        <v>40.64752244268565</v>
       </c>
       <c r="G17">
-        <v>2.086884755941648</v>
+        <v>3.642484517108405</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>12.81648635690415</v>
+        <v>21.49299987584867</v>
       </c>
       <c r="J17">
-        <v>4.952927465352179</v>
+        <v>8.258059588685065</v>
       </c>
       <c r="K17">
-        <v>12.8829514422288</v>
+        <v>8.78478971145957</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.3245047993246</v>
+        <v>18.12386525774565</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.16952398512045</v>
+        <v>22.80643198324791</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.34305186101206</v>
+        <v>9.056976134690647</v>
       </c>
       <c r="C18">
-        <v>7.810354404641083</v>
+        <v>5.004161402413667</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>19.62078827617104</v>
+        <v>21.24815193279999</v>
       </c>
       <c r="F18">
-        <v>33.54858515348123</v>
+        <v>40.62551736347951</v>
       </c>
       <c r="G18">
-        <v>2.08800526046366</v>
+        <v>3.642858388990446</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>12.87487207850314</v>
+        <v>21.51753974498049</v>
       </c>
       <c r="J18">
-        <v>4.96463715312358</v>
+        <v>8.26157480479219</v>
       </c>
       <c r="K18">
-        <v>12.74933422339234</v>
+        <v>8.734290846970971</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.10724325792076</v>
+        <v>18.0841546503639</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.19706237183481</v>
+        <v>22.82867006114709</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.28610481443243</v>
+        <v>9.031877874128826</v>
       </c>
       <c r="C19">
-        <v>7.782571903869375</v>
+        <v>4.990276259749292</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>19.5521349445305</v>
+        <v>21.23582349342476</v>
       </c>
       <c r="F19">
-        <v>33.4612368008608</v>
+        <v>40.61823846380459</v>
       </c>
       <c r="G19">
-        <v>2.08838574596258</v>
+        <v>3.642985842081824</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>12.89484566345648</v>
+        <v>21.52591774033923</v>
       </c>
       <c r="J19">
-        <v>4.968612428898174</v>
+        <v>8.262772980759541</v>
       </c>
       <c r="K19">
-        <v>12.70379002711897</v>
+        <v>8.717137179203469</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.03313805683464</v>
+        <v>18.07073558888497</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.20668464266441</v>
+        <v>22.83628136676019</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.54070181002513</v>
+        <v>9.144309428020211</v>
       </c>
       <c r="C20">
-        <v>7.90688678423289</v>
+        <v>5.052409286748408</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>19.86005092262379</v>
+        <v>21.2915252685358</v>
       </c>
       <c r="F20">
-        <v>33.85481614845332</v>
+        <v>40.6516765237091</v>
       </c>
       <c r="G20">
-        <v>2.086677894250516</v>
+        <v>3.642415733131602</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>12.80577897798421</v>
+        <v>21.48849097528702</v>
       </c>
       <c r="J20">
-        <v>4.950765241562955</v>
+        <v>8.257412791246294</v>
       </c>
       <c r="K20">
-        <v>12.90753661984835</v>
+        <v>8.794109111771578</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.36445702218355</v>
+        <v>18.13122703388341</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.16457046142222</v>
+        <v>22.80235511862339</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.36693668235844</v>
+        <v>9.512802938584979</v>
       </c>
       <c r="C21">
-        <v>8.312123884231093</v>
+        <v>5.254923817361664</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>20.87614229839166</v>
+        <v>21.48244314455853</v>
       </c>
       <c r="F21">
-        <v>35.18523707738782</v>
+        <v>40.77590406121851</v>
       </c>
       <c r="G21">
-        <v>2.081013388119695</v>
+        <v>3.640560359139223</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>12.52146046299411</v>
+        <v>21.3675573880622</v>
       </c>
       <c r="J21">
-        <v>4.891507597964942</v>
+        <v>8.239957288708876</v>
       </c>
       <c r="K21">
-        <v>13.57091570097158</v>
+        <v>9.048627382743627</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.4400795201605</v>
+        <v>18.33615022226151</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.04477280553982</v>
+        <v>22.69407168079405</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.88528295893542</v>
+        <v>9.746422778692509</v>
       </c>
       <c r="C22">
-        <v>8.567678606340509</v>
+        <v>5.382525531164517</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>21.52604552019995</v>
+        <v>21.60987323401766</v>
       </c>
       <c r="F22">
-        <v>36.05993915059268</v>
+        <v>40.86587168103038</v>
       </c>
       <c r="G22">
-        <v>2.077362504607535</v>
+        <v>3.639392377232653</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>12.34761142195131</v>
+        <v>21.29210949355627</v>
       </c>
       <c r="J22">
-        <v>4.85327001694816</v>
+        <v>8.228960352515537</v>
       </c>
       <c r="K22">
-        <v>13.98864730254447</v>
+        <v>9.211661275037132</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.11541895582624</v>
+        <v>18.47115820244275</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>13.98380895306483</v>
+        <v>22.62756369345639</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.61060509077895</v>
+        <v>9.622413920097781</v>
       </c>
       <c r="C23">
-        <v>8.432134523047313</v>
+        <v>5.314862925020472</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>21.18049828838711</v>
+        <v>21.54162853318207</v>
       </c>
       <c r="F23">
-        <v>35.59266529678576</v>
+        <v>40.81705636313168</v>
       </c>
       <c r="G23">
-        <v>2.079306610077968</v>
+        <v>3.64001168138543</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>12.43924520920344</v>
+        <v>21.33204901035592</v>
       </c>
       <c r="J23">
-        <v>4.873635609829115</v>
+        <v>8.234792101665587</v>
       </c>
       <c r="K23">
-        <v>13.76714517268289</v>
+        <v>9.124965443566335</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.75748340168836</v>
+        <v>18.39901433954531</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>14.01468447248769</v>
+        <v>22.66266967274092</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.52683053456593</v>
+        <v>9.138169220041195</v>
       </c>
       <c r="C24">
-        <v>7.90010673780143</v>
+        <v>5.049020453344744</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>19.84320987290688</v>
+        <v>21.28845183319365</v>
       </c>
       <c r="F24">
-        <v>33.83317012386301</v>
+        <v>40.64979538937519</v>
       </c>
       <c r="G24">
-        <v>2.086771395189612</v>
+        <v>3.642446814150448</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>12.81061591304515</v>
+        <v>21.49052815983454</v>
       </c>
       <c r="J24">
-        <v>4.951742577847304</v>
+        <v>8.257705058827916</v>
       </c>
       <c r="K24">
-        <v>12.89642736176142</v>
+        <v>8.789896915653449</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.34640476152492</v>
+        <v>18.12789837064957</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.16680440210024</v>
+        <v>22.80419675259439</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.26430232774742</v>
+        <v>8.58698593056109</v>
       </c>
       <c r="C25">
-        <v>7.28652223234893</v>
+        <v>4.742544835478159</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>18.34291909877096</v>
+        <v>21.02773978802499</v>
       </c>
       <c r="F25">
-        <v>31.96314253425844</v>
+        <v>40.50753354096678</v>
       </c>
       <c r="G25">
-        <v>2.095066544786972</v>
+        <v>3.645266288246106</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>13.25740164972581</v>
+        <v>21.6768822606069</v>
       </c>
       <c r="J25">
-        <v>5.038327456984192</v>
+        <v>8.284196874976679</v>
       </c>
       <c r="K25">
-        <v>11.88963419512985</v>
+        <v>8.415972823146314</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.86698506130998</v>
+        <v>17.84120840532555</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.39794948131195</v>
+        <v>22.97508779287008</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_215/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_215/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.159054695133975</v>
+        <v>12.25383665321205</v>
       </c>
       <c r="C2">
-        <v>4.500813361879064</v>
+        <v>6.801036419335192</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>20.84741186657752</v>
+        <v>17.19320677826578</v>
       </c>
       <c r="F2">
-        <v>40.43597167435549</v>
+        <v>30.61730910969278</v>
       </c>
       <c r="G2">
-        <v>3.64750983676834</v>
+        <v>2.101408436866447</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>21.82737116811017</v>
+        <v>13.62131747691318</v>
       </c>
       <c r="J2">
-        <v>8.305246227963558</v>
+        <v>5.104332026226143</v>
       </c>
       <c r="K2">
-        <v>8.131938830123946</v>
+        <v>11.09095530452695</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.63623549835984</v>
+        <v>14.7938148682716</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>23.1165425373109</v>
+        <v>14.61828918074889</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.856956119717805</v>
+        <v>11.51862357711143</v>
       </c>
       <c r="C3">
-        <v>4.327538061331373</v>
+        <v>6.451462098007074</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>20.73292576435665</v>
+        <v>16.3893851951628</v>
       </c>
       <c r="F3">
-        <v>40.40830126207543</v>
+        <v>29.72883788105372</v>
       </c>
       <c r="G3">
-        <v>3.649135742441822</v>
+        <v>2.105864044367649</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>21.93765498464185</v>
+        <v>13.8877874420824</v>
       </c>
       <c r="J3">
-        <v>8.320482328259299</v>
+        <v>5.150582169138269</v>
       </c>
       <c r="K3">
-        <v>7.935173013125079</v>
+        <v>10.51463707760486</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.50171694112018</v>
+        <v>14.0317977342217</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>23.22213170804183</v>
+        <v>14.79545674274184</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.666183235077403</v>
+        <v>11.04245203629008</v>
       </c>
       <c r="C4">
-        <v>4.216721847421771</v>
+        <v>6.226930874930682</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>20.66658662842658</v>
+        <v>15.88520104974543</v>
       </c>
       <c r="F4">
-        <v>40.40161096148864</v>
+        <v>29.19650524361745</v>
       </c>
       <c r="G4">
-        <v>3.650186352986709</v>
+        <v>2.108681119199217</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>22.00946642769632</v>
+        <v>14.06064200331451</v>
       </c>
       <c r="J4">
-        <v>8.330318766210246</v>
+        <v>5.179763612844936</v>
       </c>
       <c r="K4">
-        <v>7.812678738067859</v>
+        <v>10.14387934160299</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>17.42147761401865</v>
+        <v>13.54797955943942</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>23.29175205555968</v>
+        <v>14.91692546661139</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.58722835054327</v>
+        <v>10.84221834256822</v>
       </c>
       <c r="C5">
-        <v>4.170492182668474</v>
+        <v>6.132994902981801</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>20.64056879463397</v>
+        <v>15.6773416438937</v>
       </c>
       <c r="F5">
-        <v>40.40147726440889</v>
+        <v>28.98313386028029</v>
       </c>
       <c r="G5">
-        <v>3.650627676789443</v>
+        <v>2.10985003949552</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>22.03976089017069</v>
+        <v>14.13333314322255</v>
       </c>
       <c r="J5">
-        <v>8.334448605126152</v>
+        <v>5.191857156748051</v>
       </c>
       <c r="K5">
-        <v>7.762407816875236</v>
+        <v>9.988621724121565</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>17.38939982199019</v>
+        <v>13.34703340384397</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>23.32132563297427</v>
+        <v>14.96946944428092</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.574048266503117</v>
+        <v>10.80859709880663</v>
       </c>
       <c r="C6">
-        <v>4.162752402013241</v>
+        <v>6.11725135945112</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>20.63631050066853</v>
+        <v>15.64269058472093</v>
       </c>
       <c r="F6">
-        <v>40.40161169700116</v>
+        <v>28.94792565378272</v>
       </c>
       <c r="G6">
-        <v>3.650701756202125</v>
+        <v>2.110045416509228</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>22.04485353265091</v>
+        <v>14.14553748416329</v>
       </c>
       <c r="J6">
-        <v>8.335141705104384</v>
+        <v>5.193877609558048</v>
       </c>
       <c r="K6">
-        <v>7.754041090867612</v>
+        <v>9.962592049914075</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>17.38411159782061</v>
+        <v>13.31344503421419</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>23.32630890691263</v>
+        <v>14.97837412824866</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.665123173916963</v>
+        <v>11.03977662288291</v>
       </c>
       <c r="C7">
-        <v>4.216102656439022</v>
+        <v>6.225673817479887</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>20.66623160261548</v>
+        <v>15.88240711169525</v>
       </c>
       <c r="F7">
-        <v>40.4015986586629</v>
+        <v>29.19361291610907</v>
       </c>
       <c r="G7">
-        <v>3.650192251367534</v>
+        <v>2.108696798247495</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>22.00987081531745</v>
+        <v>14.06161331447891</v>
       </c>
       <c r="J7">
-        <v>8.33037397060369</v>
+        <v>5.179925887033372</v>
       </c>
       <c r="K7">
-        <v>7.812002104939538</v>
+        <v>10.14180225419158</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>17.42104245351649</v>
+        <v>13.54528453768487</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>23.29214602711178</v>
+        <v>14.91762195181349</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.056052987520882</v>
+        <v>12.00548694156127</v>
       </c>
       <c r="C8">
-        <v>4.442009564668836</v>
+        <v>6.682582247894682</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>20.8071291917035</v>
+        <v>16.91840791148634</v>
       </c>
       <c r="F8">
-        <v>40.42429550401318</v>
+        <v>30.30837038377453</v>
       </c>
       <c r="G8">
-        <v>3.648059619197098</v>
+        <v>2.102928157306378</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>21.86454708246615</v>
+        <v>13.71123225238325</v>
       </c>
       <c r="J8">
-        <v>8.310399933416742</v>
+        <v>5.120119391462628</v>
       </c>
       <c r="K8">
-        <v>8.064482717676006</v>
+        <v>10.89578862673981</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.58938172586954</v>
+        <v>14.53449919667533</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>23.15195511066727</v>
+        <v>14.67665268897892</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.776286318001116</v>
+        <v>13.70213352653201</v>
       </c>
       <c r="C9">
-        <v>4.848345383186716</v>
+        <v>7.498488430020206</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>21.11381854304573</v>
+        <v>18.85566922265576</v>
       </c>
       <c r="F9">
-        <v>40.55032105585345</v>
+        <v>32.58876197042287</v>
       </c>
       <c r="G9">
-        <v>3.644290629963493</v>
+        <v>2.092237534020359</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>21.61204781831677</v>
+        <v>13.10118155250711</v>
       </c>
       <c r="J9">
-        <v>8.275034334681006</v>
+        <v>5.008827018236754</v>
       </c>
       <c r="K9">
-        <v>8.543428424884562</v>
+        <v>12.23775805733206</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.93690840026691</v>
+        <v>16.34016251033038</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>22.91509174618701</v>
+        <v>14.31181518693027</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.271985256580345</v>
+        <v>14.82831760295326</v>
       </c>
       <c r="C10">
-        <v>5.122763680016297</v>
+        <v>8.047645487427172</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>21.35624362162552</v>
+        <v>20.21089348147189</v>
       </c>
       <c r="F10">
-        <v>40.69221210392202</v>
+        <v>34.30883319952898</v>
       </c>
       <c r="G10">
-        <v>3.641770771251804</v>
+        <v>2.084727377943499</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>21.4463015712924</v>
+        <v>12.70592692070349</v>
       </c>
       <c r="J10">
-        <v>8.251346857958247</v>
+        <v>4.930370928724471</v>
       </c>
       <c r="K10">
-        <v>8.881913790759652</v>
+        <v>13.13809668135527</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.20108825282544</v>
+        <v>17.73879807551979</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>22.76434571668573</v>
+        <v>14.11986540509903</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.489339330961348</v>
+        <v>15.31466174087839</v>
       </c>
       <c r="C11">
-        <v>5.24207625535829</v>
+        <v>8.286406506285203</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>21.46991400862835</v>
+        <v>20.81111962629007</v>
       </c>
       <c r="F11">
-        <v>40.76734100666726</v>
+        <v>35.09870946657812</v>
       </c>
       <c r="G11">
-        <v>3.640677980617394</v>
+        <v>2.081377377561483</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>21.3751845310387</v>
+        <v>12.53920458684492</v>
       </c>
       <c r="J11">
-        <v>8.241064377419118</v>
+        <v>4.895318046978048</v>
       </c>
       <c r="K11">
-        <v>9.032322666494141</v>
+        <v>13.52885156480772</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.32280500204238</v>
+        <v>18.37199931472844</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>22.70084012917906</v>
+        <v>14.05154992121027</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.57041329658793</v>
+        <v>15.49511397488222</v>
       </c>
       <c r="C12">
-        <v>5.28644311155795</v>
+        <v>8.375225814171113</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>21.51341633450878</v>
+        <v>21.03598457030442</v>
       </c>
       <c r="F12">
-        <v>40.79729801034138</v>
+        <v>35.3987190960754</v>
       </c>
       <c r="G12">
-        <v>3.640271821262995</v>
+        <v>2.080117650856297</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>21.34886981255156</v>
+        <v>12.47810883678633</v>
       </c>
       <c r="J12">
-        <v>8.237241204805628</v>
+        <v>4.88212907001376</v>
       </c>
       <c r="K12">
-        <v>9.08871516483655</v>
+        <v>13.67410677183016</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.36908427005715</v>
+        <v>18.60703065065917</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>22.67752289590976</v>
+        <v>14.028634595632</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.553008326792488</v>
+        <v>15.45641527290817</v>
       </c>
       <c r="C13">
-        <v>5.276924417881569</v>
+        <v>8.356167910606342</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>21.50402744941619</v>
+        <v>20.98766494603502</v>
       </c>
       <c r="F13">
-        <v>40.7907794450612</v>
+        <v>35.33406889787087</v>
       </c>
       <c r="G13">
-        <v>3.640358955003264</v>
+        <v>2.080388573832249</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>21.35450977039905</v>
+        <v>12.49117351380299</v>
       </c>
       <c r="J13">
-        <v>8.238061459507984</v>
+        <v>4.884965894827681</v>
       </c>
       <c r="K13">
-        <v>9.076595882746114</v>
+        <v>13.64294428944881</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.35910938769278</v>
+        <v>18.5566225039943</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>22.68251213825848</v>
+        <v>14.0334347745314</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.49603438085175</v>
+        <v>15.32958200179498</v>
       </c>
       <c r="C14">
-        <v>5.24574276662112</v>
+        <v>8.293745683873297</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>21.47348396854278</v>
+        <v>20.82966845556999</v>
       </c>
       <c r="F14">
-        <v>40.76977546782279</v>
+        <v>35.12337422509714</v>
       </c>
       <c r="G14">
-        <v>3.640644412403509</v>
+        <v>2.081273566003219</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>21.37300726203165</v>
+        <v>12.53413637517678</v>
       </c>
       <c r="J14">
-        <v>8.240748430030015</v>
+        <v>4.894231323362246</v>
       </c>
       <c r="K14">
-        <v>9.036973692151582</v>
+        <v>13.54085624068948</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.32660885528109</v>
+        <v>18.39143024333291</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>22.69890714557957</v>
+        <v>14.04960414418442</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.460973867530214</v>
+        <v>15.25140968647106</v>
       </c>
       <c r="C15">
-        <v>5.22653652068454</v>
+        <v>8.255302596035193</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>21.45483393191378</v>
+        <v>20.73257277433536</v>
       </c>
       <c r="F15">
-        <v>40.75710576240879</v>
+        <v>34.99443056998178</v>
       </c>
       <c r="G15">
-        <v>3.64082025933524</v>
+        <v>2.081816779558375</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>21.38441770259357</v>
+        <v>12.56072284934474</v>
       </c>
       <c r="J15">
-        <v>8.242403459053671</v>
+        <v>4.89991749738352</v>
       </c>
       <c r="K15">
-        <v>9.012629061538187</v>
+        <v>13.47797061915714</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.30672479313101</v>
+        <v>18.28962893390853</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>22.70904481166516</v>
+        <v>14.05989986241604</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.257611285671107</v>
+        <v>14.79601280897797</v>
       </c>
       <c r="C16">
-        <v>5.114853413444089</v>
+        <v>8.031818923863533</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>21.34888069334812</v>
+        <v>20.17133169080901</v>
       </c>
       <c r="F16">
-        <v>40.68751400845315</v>
+        <v>34.25734724442358</v>
       </c>
       <c r="G16">
-        <v>3.641843261165447</v>
+        <v>2.084947585541642</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>21.45103539985264</v>
+        <v>12.7170988255472</v>
       </c>
       <c r="J16">
-        <v>8.25202873638859</v>
+        <v>4.932673964207681</v>
       </c>
       <c r="K16">
-        <v>8.872007950502566</v>
+        <v>13.1121803172127</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.19316189087369</v>
+        <v>17.69674865612288</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>22.76859813499946</v>
+        <v>14.12473105017857</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.130722427074572</v>
+        <v>14.51000257361713</v>
       </c>
       <c r="C17">
-        <v>5.044909830245811</v>
+        <v>7.89188258089828</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>21.28472923787408</v>
+        <v>19.82278906566303</v>
       </c>
       <c r="F17">
-        <v>40.64752244268565</v>
+        <v>33.80694138636532</v>
       </c>
       <c r="G17">
-        <v>3.642484517108405</v>
+        <v>2.086884755941515</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>21.49299987584867</v>
+        <v>12.8164863569042</v>
       </c>
       <c r="J17">
-        <v>8.258059588685065</v>
+        <v>4.952927465352178</v>
       </c>
       <c r="K17">
-        <v>8.78478971145957</v>
+        <v>12.8829514422288</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.12386525774565</v>
+        <v>17.32450479932456</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>22.80643198324791</v>
+        <v>14.16952398512055</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.056976134690647</v>
+        <v>14.34305186101206</v>
       </c>
       <c r="C18">
-        <v>5.004161402413667</v>
+        <v>7.810354404641083</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>21.24815193279999</v>
+        <v>19.62078827617107</v>
       </c>
       <c r="F18">
-        <v>40.62551736347951</v>
+        <v>33.54858515348125</v>
       </c>
       <c r="G18">
-        <v>3.642858388990446</v>
+        <v>2.088005260463659</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>21.51753974498049</v>
+        <v>12.87487207850312</v>
       </c>
       <c r="J18">
-        <v>8.26157480479219</v>
+        <v>4.964637153123615</v>
       </c>
       <c r="K18">
-        <v>8.734290846970971</v>
+        <v>12.74933422339234</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.0841546503639</v>
+        <v>17.10724325792075</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>22.82867006114709</v>
+        <v>14.19706237183479</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.031877874128826</v>
+        <v>14.28610481443249</v>
       </c>
       <c r="C19">
-        <v>4.990276259749292</v>
+        <v>7.782571903869218</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>21.23582349342476</v>
+        <v>19.55213494453053</v>
       </c>
       <c r="F19">
-        <v>40.61823846380459</v>
+        <v>33.46123680086087</v>
       </c>
       <c r="G19">
-        <v>3.642985842081824</v>
+        <v>2.08838574596258</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>21.52591774033923</v>
+        <v>12.8948456634564</v>
       </c>
       <c r="J19">
-        <v>8.262772980759541</v>
+        <v>4.968612428898106</v>
       </c>
       <c r="K19">
-        <v>8.717137179203469</v>
+        <v>12.70379002711896</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.07073558888497</v>
+        <v>17.03313805683461</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>22.83628136676019</v>
+        <v>14.20668464266437</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.144309428020211</v>
+        <v>14.54070181002517</v>
       </c>
       <c r="C20">
-        <v>5.052409286748408</v>
+        <v>7.906886784232792</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>21.2915252685358</v>
+        <v>19.86005092262383</v>
       </c>
       <c r="F20">
-        <v>40.6516765237091</v>
+        <v>33.85481614845332</v>
       </c>
       <c r="G20">
-        <v>3.642415733131602</v>
+        <v>2.086677894250649</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>21.48849097528702</v>
+        <v>12.80577897798408</v>
       </c>
       <c r="J20">
-        <v>8.257412791246294</v>
+        <v>4.950765241562888</v>
       </c>
       <c r="K20">
-        <v>8.794109111771578</v>
+        <v>12.90753661984835</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.13122703388341</v>
+        <v>17.3644570221835</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>22.80235511862339</v>
+        <v>14.16457046142212</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.512802938584979</v>
+        <v>15.36693668235845</v>
       </c>
       <c r="C21">
-        <v>5.254923817361664</v>
+        <v>8.312123884231063</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>21.48244314455853</v>
+        <v>20.87614229839165</v>
       </c>
       <c r="F21">
-        <v>40.77590406121851</v>
+        <v>35.18523707738773</v>
       </c>
       <c r="G21">
-        <v>3.640560359139223</v>
+        <v>2.081013388119561</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>21.3675573880622</v>
+        <v>12.52146046299411</v>
       </c>
       <c r="J21">
-        <v>8.239957288708876</v>
+        <v>4.89150759796501</v>
       </c>
       <c r="K21">
-        <v>9.048627382743627</v>
+        <v>13.57091570097158</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.33615022226151</v>
+        <v>18.44007952016049</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>22.69407168079405</v>
+        <v>14.04477280553981</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.746422778692509</v>
+        <v>15.88528295893541</v>
       </c>
       <c r="C22">
-        <v>5.382525531164517</v>
+        <v>8.567678606340495</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>21.60987323401766</v>
+        <v>21.52604552019995</v>
       </c>
       <c r="F22">
-        <v>40.86587168103038</v>
+        <v>36.0599391505927</v>
       </c>
       <c r="G22">
-        <v>3.639392377232653</v>
+        <v>2.0773625046074</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>21.29210949355627</v>
+        <v>12.34761142195129</v>
       </c>
       <c r="J22">
-        <v>8.228960352515537</v>
+        <v>4.853270016948159</v>
       </c>
       <c r="K22">
-        <v>9.211661275037132</v>
+        <v>13.98864730254447</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.47115820244275</v>
+        <v>19.11541895582621</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>22.62756369345639</v>
+        <v>13.98380895306479</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.622413920097781</v>
+        <v>15.61060509077895</v>
       </c>
       <c r="C23">
-        <v>5.314862925020472</v>
+        <v>8.432134523047202</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>21.54162853318207</v>
+        <v>21.18049828838715</v>
       </c>
       <c r="F23">
-        <v>40.81705636313168</v>
+        <v>35.59266529678581</v>
       </c>
       <c r="G23">
-        <v>3.64001168138543</v>
+        <v>2.079306610078101</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>21.33204901035592</v>
+        <v>12.43924520920344</v>
       </c>
       <c r="J23">
-        <v>8.234792101665587</v>
+        <v>4.873635609829182</v>
       </c>
       <c r="K23">
-        <v>9.124965443566335</v>
+        <v>13.76714517268285</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.39901433954531</v>
+        <v>18.75748340168835</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>22.66266967274092</v>
+        <v>14.01468447248771</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.138169220041195</v>
+        <v>14.5268305345659</v>
       </c>
       <c r="C24">
-        <v>5.049020453344744</v>
+        <v>7.900106737801386</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>21.28845183319365</v>
+        <v>19.84320987290687</v>
       </c>
       <c r="F24">
-        <v>40.64979538937519</v>
+        <v>33.83317012386306</v>
       </c>
       <c r="G24">
-        <v>3.642446814150448</v>
+        <v>2.086771395189344</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>21.49052815983454</v>
+        <v>12.81061591304511</v>
       </c>
       <c r="J24">
-        <v>8.257705058827916</v>
+        <v>4.951742577847269</v>
       </c>
       <c r="K24">
-        <v>8.789896915653449</v>
+        <v>12.89642736176138</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.12789837064957</v>
+        <v>17.34640476152487</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>22.80419675259439</v>
+        <v>14.16680440210026</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.58698593056109</v>
+        <v>13.26430232774753</v>
       </c>
       <c r="C25">
-        <v>4.742544835478159</v>
+        <v>7.286522232348667</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>21.02773978802499</v>
+        <v>18.34291909877096</v>
       </c>
       <c r="F25">
-        <v>40.50753354096678</v>
+        <v>31.96314253425843</v>
       </c>
       <c r="G25">
-        <v>3.645266288246106</v>
+        <v>2.095066544786971</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>21.6768822606069</v>
+        <v>13.25740164972564</v>
       </c>
       <c r="J25">
-        <v>8.284196874976679</v>
+        <v>5.038327456984024</v>
       </c>
       <c r="K25">
-        <v>8.415972823146314</v>
+        <v>11.88963419512985</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.84120840532555</v>
+        <v>15.86698506131</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>22.97508779287008</v>
+        <v>14.39794948131187</v>
       </c>
     </row>
   </sheetData>
